--- a/doc/app/pg0171/エビデンス/No12.xlsx
+++ b/doc/app/pg0171/エビデンス/No12.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0666554-A572-4D89-B38F-0D83A3045165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A87D6B-30E8-47EE-A8E4-5BB3839B6A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1回目" sheetId="1" r:id="rId1"/>
+    <sheet name="2回目" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>単体テストエビデンス</t>
   </si>
@@ -43,6 +44,13 @@
   </si>
   <si>
     <t>pg0171_db_update_単体テスト仕様書</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マスタカードの更新</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -155,6 +163,1341 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>30493</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>115318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B375866-ECDD-AE69-F046-532C2865F5EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2266950"/>
+          <a:ext cx="13746493" cy="7297168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D20555-A524-9E85-74CC-046E1604DB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8775700" y="4000500"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>削除するカードがあることを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>98298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7506731F-C1EC-4B50-8C69-45BC1AD3CC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883650" y="8439150"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11465"/>
+            <a:gd name="adj2" fmla="val -125104"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>削除フラグがたってないことを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>55481</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>29425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB21DA9D-AE1E-12BF-1050-33B98120BC08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="10655300"/>
+          <a:ext cx="10793331" cy="6087325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>34798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D2E0C6-26A0-4FEC-A1B4-10919D9E5B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5226050" y="11017250"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>申請者のカードがあることを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2440B94A-406A-468B-A642-8D1ECF2C7412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="15341600"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36050"/>
+            <a:gd name="adj2" fmla="val -124067"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>権限があることを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>145</xdr:col>
+      <xdr:colOff>107103</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>54075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A86130C-670E-065D-AAC4-C4F6DA0843ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17043400"/>
+          <a:ext cx="16680603" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>155448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594CF3F0-6B32-432C-948D-D5C1701EEB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4222750" y="18072100"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36050"/>
+            <a:gd name="adj2" fmla="val -124067"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>パラメータ一覧の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>No12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>の通り引数を与える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>21334</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>149338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8652789E-76A4-2181-9A42-991C6F3CCB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19024600"/>
+          <a:ext cx="16366234" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>22098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEF2F48-C521-446F-831B-137E7F2134FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498850" y="20250150"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36050"/>
+            <a:gd name="adj2" fmla="val -124067"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>想定通りのメッセージが出た</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>77662</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>67485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711D316F-53EE-6FE6-FDBF-A5F4F918CA79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21545550"/>
+          <a:ext cx="10478962" cy="5801535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>30493</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>115318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A4F7D7-1AFC-4F8E-847B-D0181F764D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2266950"/>
+          <a:ext cx="13746493" cy="7297168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6ED805-09EA-4C09-A2E6-9258ED1496CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8775700" y="4000500"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>削除するカードがあることを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>98298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFAC224-2DD8-4B5C-B69F-FBE858D6E548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883650" y="8439150"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11465"/>
+            <a:gd name="adj2" fmla="val -125104"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>削除フラグがたってないことを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>55481</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>29425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F363E2-D097-4A45-B5F9-19DB38C8CD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="10655300"/>
+          <a:ext cx="10793331" cy="6087325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>34798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551C08A0-8AD7-426C-AA4E-97E5611ACD60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5226050" y="11017250"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>申請者のカードがあることを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0BA735-E0BB-45F4-972E-03D706B0C944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="15341600"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36050"/>
+            <a:gd name="adj2" fmla="val -124067"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>権限があることを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>145</xdr:col>
+      <xdr:colOff>107103</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>54075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B01FEC-1C7F-44D8-BDB5-BB88B152A439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17043400"/>
+          <a:ext cx="16680603" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>155448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBADDBE6-B720-4A47-83B7-5995CAEF0F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4222750" y="18072100"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36050"/>
+            <a:gd name="adj2" fmla="val -124067"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>パラメータ一覧の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>No12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>の通り引数を与える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>21334</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>149338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EA0EE4-3152-4401-AA98-BBED1FC2FB63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19024600"/>
+          <a:ext cx="16366234" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>22098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDC2015-7B8B-409F-8271-F6456559AFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498850" y="20250150"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36050"/>
+            <a:gd name="adj2" fmla="val -124067"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>想定通りのメッセージが出た</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>77694</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>121426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2BD7CA-4597-557B-78F7-767AA1BD300E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21177250"/>
+          <a:ext cx="10707594" cy="5563376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="吹き出し: 四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0674342B-ACB5-44B0-BEEE-5C152C23AA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="25552400"/>
+          <a:ext cx="2044700" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36050"/>
+            <a:gd name="adj2" fmla="val -124067"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>削除フラグが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>になった</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:EL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="CP155" sqref="CP155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -763,5 +2106,331 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2923B4C-B63A-42CA-8455-F1CE12E9AE56}">
+  <dimension ref="B2:EL6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5:AS5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:142" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
+      <c r="DP2" s="4"/>
+      <c r="DQ2" s="4"/>
+      <c r="DR2" s="4"/>
+      <c r="DS2" s="4"/>
+      <c r="DT2" s="4"/>
+      <c r="DU2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DX2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EC2" s="4"/>
+      <c r="ED2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+    </row>
+    <row r="4" spans="2:142" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+    </row>
+    <row r="5" spans="2:142" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+    </row>
+    <row r="6" spans="2:142" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:EL2"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="X4:AS4"/>
+    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="X5:AS5"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="X6:AS6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>